--- a/data/Putaendo.xlsx
+++ b/data/Putaendo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Putaendo.xlsx
+++ b/data/Putaendo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Parque Solar Rinconada Sur</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SLK CB NUEVE SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>430</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153546373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Gran Rinconada Norte</t>
+          <t>Ampliación Parque Solar Rinconada Sur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FV Rinconada SpA</t>
+          <t>SLK CB NUEVE SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3500</v>
+        <v>430</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153546373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Parque Solar Rinconada Sur</t>
+          <t>Parque Solar Gran Rinconada Norte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SLK CB NUEVE SpA</t>
+          <t>FV Rinconada SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/10/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148784215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar Gran Rinconada Norte</t>
+          <t>Ampliación Parque Solar Rinconada Sur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FV Rinconada SpA</t>
+          <t>SLK CB NUEVE SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/10/2020</t>
+          <t>22/10/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148788142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148784215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sondajes Mineros de Prefactibilidad Las Tejas</t>
+          <t>Parque Solar Gran Rinconada Norte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cia Minera Vizcachitas Holding</t>
+          <t>FV Rinconada SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/06/2019</t>
+          <t>18/10/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143396497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148788142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SIFON EN ESTERO SECO CANAL LOS LAZOS DE QUEBRADA DE HERRERA QUINTA REGION</t>
+          <t>Sondajes Mineros de Prefactibilidad Las Tejas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL LOS LAZOS DE QDA DE HERRERA</t>
+          <t>Cia Minera Vizcachitas Holding</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>07/06/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141233699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143396497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/08/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138056705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141233699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Regularización plataformas de sondajes mineros, sector Las Tejas"</t>
+          <t>CONSTRUCCION SIFON EN ESTERO SECO CANAL LOS LAZOS DE QUEBRADA DE HERRERA QUINTA REGION</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cia Minera Vizcachitas Holding</t>
+          <t>COMUNIDAD DE AGUAS CANAL LOS LAZOS DE QDA DE HERRERA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>57</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04/06/2018</t>
+          <t>02/08/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139242144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138056705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>"Regularización plataformas de sondajes mineros, sector Las Tejas"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Cia Minera Vizcachitas Holding</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>04/06/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139242144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SIFON EN ESTERO SECO CANAL LOS LAZOS DE QUEBRADA DE HERRERA QUINTA REGION</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL LOS LAZOS DE QDA DE HERRERA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132752336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>CONSTRUCCION SIFON EN ESTERO SECO CANAL LOS LAZOS DE QUEBRADA DE HERRERA QUINTA REGION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>COMUNIDAD DE AGUAS CANAL LOS LAZOS DE QDA DE HERRERA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132752336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Loteo la Palma de Putaendo</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AGROTRIGAL S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4934</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130387622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Loteo La Palma de Putaendo .</t>
+          <t>Loteo la Palma de Putaendo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aliro Leonel Silva Pérez</t>
+          <t>AGROTRIGAL S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/04/2015</t>
+          <t>29/04/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130358116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130387622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Loteo La Palma de Putaendo .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Aliro Leonel Silva Pérez</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6750</v>
+        <v>4934</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>02/04/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130358116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS EN RIO PUTAENDO, AGUAS ARRIBA DEL PUENTE 21 DE MAYO, COMUNA DE PUTAENDO, REGION DE VALPARAISO</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aridos Tres Esquinas</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>384</v>
+        <v>6750</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/10/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128663631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Camino de Circunvalación Embalse Chacrillas, comuna de Putaendo, Región de Valparaíso</t>
+          <t>EXTRACCIÓN DE ÁRIDOS EN RIO PUTAENDO, AGUAS ARRIBA DEL PUENTE 21 DE MAYO, COMUNA DE PUTAENDO, REGION DE VALPARAISO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aridos Tres Esquinas</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3601</v>
+        <v>384</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>21/10/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128663631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Camino de Circunvalación Embalse Chacrillas, comuna de Putaendo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>15000</v>
+        <v>3601</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Encauzamiento con Extracción de Material Excedente, Rio Putaendo</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7824</v>
+        <v>15000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6778512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Encauzamiento con Extracción de Material Excedente, Rio Putaendo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>7824</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6778512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5055995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/10/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5017976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5055995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>563</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>21/10/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5017976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>563</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EMPRESA DE DESHIDRATADO PARA PASAS Y PIMIENTOS, AGROSERVICIOS CHILE LTDA. (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AGROSERVICIOS CHILE LTDA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>EMPRESA DE DESHIDRATADO PARA PASAS Y PIMIENTOS, AGROSERVICIOS CHILE LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>AGROSERVICIOS CHILE LTDA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,36 +1912,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Embalse Chacrillas</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>42294</v>
+        <v>22</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/01/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3465564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,14 +1960,10 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Prospección Minera Vizcachitas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Embalse Chacrillas</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>Quinta</t>
@@ -1971,25 +1971,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Compañía Minera Vizcachitas Holding</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10000</v>
+        <v>42294</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/02/2008</t>
+          <t>06/01/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2726190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3465564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Prospección Minera Vizcachitas (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,30 +2014,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera Vizcachitas Holding</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>429</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>22/02/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2726190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,15 +2115,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,15 +2163,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,25 +2211,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE UNA PLANTA DE TRATAMIENTO DE RILES (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2302,30 +2302,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02/10/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1677397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>16/08/2006</t>
+          <t>02/10/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1628320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1677397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>IMPLEMENTACIÓN DE UNA PLANTA DE TRATAMIENTO DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2398,30 +2398,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4000</v>
+        <v>93</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>16/08/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1628320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2494,30 +2494,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2547,25 +2547,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2603,17 +2603,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2638,30 +2638,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2699,17 +2699,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Granja de Compostaje Tabolango</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2734,30 +2734,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>GESTION AMBIENTE S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Parqueadero Buses Rurales y Estación de Servicio Recorrido Putaendo San Felipe - YPF Putaendo</t>
+          <t>Granja de Compostaje Tabolango</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2787,25 +2787,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Empresa de Transportes PUMA S.A.</t>
+          <t>GESTION AMBIENTE S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Motel - Cabañas Quebrada Herrera - Calle Ortiz</t>
+          <t>Parqueadero Buses Rurales y Estación de Servicio Recorrido Putaendo San Felipe - YPF Putaendo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2835,15 +2835,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Germán Oliví Melendez</t>
+          <t>Empresa de Transportes PUMA S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación Cementerio Parroquial de Putaendo</t>
+          <t>Motel - Cabañas Quebrada Herrera - Calle Ortiz</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2883,15 +2883,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Parroquia San Antonio de Padua de Putaendo</t>
+          <t>Germán Oliví Melendez</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/01/1999</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,43 +2916,91 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>Ampliación Cementerio Parroquial de Putaendo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Parroquia San Antonio de Padua de Putaendo</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>60</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>20/01/1999</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2047&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Putaendo</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Línea de Transmisión Eléctrica San Isidro - Los Piuquenes</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>MLP Transmisión S.A.</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F55" t="n">
         <v>24800</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>03/10/1997</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=20&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Putaendo</t>
         </is>

--- a/data/Putaendo.xlsx
+++ b/data/Putaendo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
